--- a/ipl-2020-21-1210595/delhi capitals vs mumbai indians qualifier 1 1237177/Bowling1.xlsx
+++ b/ipl-2020-21-1210595/delhi capitals vs mumbai indians qualifier 1 1237177/Bowling1.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -557,42 +557,77 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Kieron Pollard</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>36</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>9.00</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>8</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Rahul Chahar</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <v>35</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>17.50</v>
+      </c>
+      <c r="G7" t="str">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <v>3</v>
+      </c>
+      <c r="I7" t="str">
+        <v>3</v>
+      </c>
+      <c r="J7" t="str">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
   </ignoredErrors>
 </worksheet>
 </file>